--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="80" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$102</definedName>
+  </definedNames>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>Problem No.</t>
   </si>
@@ -371,26 +382,38 @@
   </si>
   <si>
     <t>The number of women currently surving in the U.S. Congress, according to Sunlight Foundation data</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,7 +421,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -414,54 +437,370 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.29"/>
-    <col customWidth="1" min="2" max="2" width="82.57"/>
-    <col customWidth="1" min="3" max="3" width="13.29"/>
-    <col customWidth="1" min="4" max="4" width="20.57"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="82.5" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,1044 +810,1176 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>3.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="1">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="1">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" s="1">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="1">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="1">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="1">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="1">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="1">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="1">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="1">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="1">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="1">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="1">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="1">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>72.0</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="1">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>76.0</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A33" s="1">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A34" s="1">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>82.0</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A35" s="1">
+        <v>82</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>84.0</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A36" s="1">
+        <v>84</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A37" s="1">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A38" s="1">
+        <v>93</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C38" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="1"/>
-    </row>
-    <row r="40">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="1"/>
-    </row>
-    <row r="41">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="F41" s="1" t="s">
+      <c r="D41" s="1"/>
+      <c r="G41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="1"/>
-    </row>
-    <row r="43">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="1"/>
-    </row>
-    <row r="44">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="1"/>
-    </row>
-    <row r="46">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="1"/>
-    </row>
-    <row r="47">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="1"/>
-    </row>
-    <row r="48">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="1"/>
-    </row>
-    <row r="50">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="1"/>
-    </row>
-    <row r="51">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="1"/>
-    </row>
-    <row r="52">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="1"/>
-    </row>
-    <row r="53">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C53" s="1"/>
-    </row>
-    <row r="54">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C56" s="1"/>
-    </row>
-    <row r="57">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C57" s="1"/>
-    </row>
-    <row r="58">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="1"/>
-    </row>
-    <row r="59">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="1"/>
-    </row>
-    <row r="60">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C60" s="1"/>
-    </row>
-    <row r="61">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="E61" s="2" t="s">
+      <c r="D61" s="1"/>
+      <c r="F61" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="1"/>
-    </row>
-    <row r="63">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="1"/>
-    </row>
-    <row r="64">
+      <c r="D63" s="1"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="1"/>
-    </row>
-    <row r="65">
+      <c r="D64" s="1"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C65" s="1"/>
-    </row>
-    <row r="66">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="1"/>
-    </row>
-    <row r="67">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C67" s="1"/>
-    </row>
-    <row r="68">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="1"/>
-    </row>
-    <row r="69">
+      <c r="D68" s="1"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C69" s="1"/>
-    </row>
-    <row r="70">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C70" s="1"/>
-    </row>
-    <row r="71">
+      <c r="D70" s="1"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C71" s="1"/>
-    </row>
-    <row r="72">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C73" s="1"/>
-    </row>
-    <row r="74">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C74" s="1"/>
-    </row>
-    <row r="75">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C75" s="1"/>
-    </row>
-    <row r="76">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C76" s="1"/>
-    </row>
-    <row r="77">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C77" s="1"/>
-    </row>
-    <row r="78">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C78" s="1"/>
-    </row>
-    <row r="79">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C79" s="1"/>
-    </row>
-    <row r="80">
+      <c r="D79" s="1"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C80" s="1"/>
-    </row>
-    <row r="81">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C81" s="1"/>
-    </row>
-    <row r="82">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C82" s="1"/>
-    </row>
-    <row r="83">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C83" s="1"/>
-    </row>
-    <row r="84">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C84" s="1"/>
-    </row>
-    <row r="85">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="1"/>
-      <c r="E86" s="2" t="s">
+      <c r="D86" s="1"/>
+      <c r="F86" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C87" s="1"/>
-    </row>
-    <row r="88">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C88" s="1"/>
-    </row>
-    <row r="89">
+      <c r="D88" s="1"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C89" s="1"/>
-    </row>
-    <row r="90">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C90" s="1"/>
-    </row>
-    <row r="91">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1">
       <c r="A91" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C91" s="1"/>
-    </row>
-    <row r="92">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C92" s="1"/>
-    </row>
-    <row r="93">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="1"/>
+      <c r="E94" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C95" s="1"/>
-    </row>
-    <row r="96">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C96" s="1"/>
-    </row>
-    <row r="97">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1">
       <c r="A97" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C97" s="1"/>
-    </row>
-    <row r="98">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1">
       <c r="A98" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C98" s="1"/>
-    </row>
-    <row r="99">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1">
       <c r="A99" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C99" s="1"/>
-    </row>
-    <row r="100">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1">
       <c r="A100" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C100" s="1"/>
-    </row>
-    <row r="101">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1">
       <c r="A101" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C101" s="1"/>
-    </row>
-    <row r="102">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1">
       <c r="A102" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G102">
+    <sortState ref="A2:G102">
+      <sortCondition ref="C1:C102"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E61"/>
-    <hyperlink r:id="rId2" ref="E86"/>
-    <hyperlink r:id="rId3" ref="E94"/>
+    <hyperlink ref="F61" r:id="rId1"/>
+    <hyperlink ref="F86" r:id="rId2"/>
+    <hyperlink ref="F94" r:id="rId3"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="25600" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
   <si>
     <t>Problem No.</t>
   </si>
@@ -786,10 +786,10 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="A1:G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -869,13 +869,15 @@
       <c r="A5" s="1">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1">

--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
   <si>
     <t>Problem No.</t>
   </si>
@@ -789,7 +789,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="A1:G102"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -883,13 +883,15 @@
       <c r="A6" s="1">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1">

--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>Problem No.</t>
   </si>
@@ -897,13 +897,15 @@
       <c r="A7" s="1">
         <v>55</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="1">

--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$102</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -789,7 +789,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -911,7 +911,7 @@
       <c r="A8" s="1">
         <v>59</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="1">

--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="25600" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="25520" yWindow="-20" windowWidth="25600" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$102</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
   <si>
     <t>Problem No.</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>OK for tag=university?</t>
+  </si>
+  <si>
+    <t>use json ok?</t>
   </si>
 </sst>
 </file>
@@ -783,13 +792,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -797,10 +806,11 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="82.5" customWidth="1"/>
     <col min="3" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,17 +823,20 @@
       <c r="D1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -836,8 +849,9 @@
       <c r="D2" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -850,8 +864,9 @@
       <c r="D3" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>21</v>
       </c>
@@ -864,8 +879,9 @@
       <c r="D4" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>28</v>
       </c>
@@ -878,8 +894,9 @@
       <c r="D5" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>37</v>
       </c>
@@ -892,8 +909,9 @@
       <c r="D6" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>55</v>
       </c>
@@ -906,8 +924,9 @@
       <c r="D7" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>59</v>
       </c>
@@ -917,33 +936,46 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>61</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -954,8 +986,9 @@
         <v>2</v>
       </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -966,8 +999,9 @@
         <v>2</v>
       </c>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -978,8 +1012,9 @@
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -990,8 +1025,9 @@
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>22</v>
       </c>
@@ -1002,8 +1038,9 @@
         <v>2</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>27</v>
       </c>
@@ -1014,8 +1051,9 @@
         <v>2</v>
       </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -1026,8 +1064,9 @@
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>31</v>
       </c>
@@ -1038,8 +1077,9 @@
         <v>2</v>
       </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>35</v>
       </c>
@@ -1050,8 +1090,9 @@
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>38</v>
       </c>
@@ -1062,8 +1103,9 @@
         <v>2</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>39</v>
       </c>
@@ -1074,8 +1116,9 @@
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>41</v>
       </c>
@@ -1086,8 +1129,9 @@
         <v>2</v>
       </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>44</v>
       </c>
@@ -1098,8 +1142,9 @@
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>45</v>
       </c>
@@ -1110,8 +1155,9 @@
         <v>2</v>
       </c>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>46</v>
       </c>
@@ -1122,8 +1168,9 @@
         <v>2</v>
       </c>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>49</v>
       </c>
@@ -1134,8 +1181,9 @@
         <v>2</v>
       </c>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>51</v>
       </c>
@@ -1146,9 +1194,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E27" s="1"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>54</v>
       </c>
@@ -1159,9 +1208,10 @@
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E28" s="1"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>56</v>
       </c>
@@ -1172,8 +1222,9 @@
         <v>2</v>
       </c>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>58</v>
       </c>
@@ -1184,8 +1235,9 @@
         <v>2</v>
       </c>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>65</v>
       </c>
@@ -1196,8 +1248,9 @@
         <v>2</v>
       </c>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>72</v>
       </c>
@@ -1208,8 +1261,9 @@
         <v>2</v>
       </c>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>76</v>
       </c>
@@ -1220,8 +1274,9 @@
         <v>2</v>
       </c>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>77</v>
       </c>
@@ -1232,8 +1287,9 @@
         <v>2</v>
       </c>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>82</v>
       </c>
@@ -1244,11 +1300,12 @@
         <v>2</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>84</v>
       </c>
@@ -1259,9 +1316,10 @@
         <v>2</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E36" s="1"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>91</v>
       </c>
@@ -1272,8 +1330,9 @@
         <v>2</v>
       </c>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>93</v>
       </c>
@@ -1284,10 +1343,11 @@
         <v>2</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="7"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -1296,8 +1356,9 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>6</v>
       </c>
@@ -1306,8 +1367,9 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <v>8</v>
       </c>
@@ -1316,11 +1378,12 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="G41" s="1" t="s">
+      <c r="E41" s="1"/>
+      <c r="H41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <v>9</v>
       </c>
@@ -1329,8 +1392,9 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <v>10</v>
       </c>
@@ -1339,8 +1403,9 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <v>11</v>
       </c>
@@ -1349,11 +1414,12 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="F44" s="1" t="s">
+      <c r="E44" s="1"/>
+      <c r="G44" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>12</v>
       </c>
@@ -1362,8 +1428,9 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>13</v>
       </c>
@@ -1372,8 +1439,9 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <v>15</v>
       </c>
@@ -1382,8 +1450,9 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <v>17</v>
       </c>
@@ -1392,11 +1461,12 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <v>18</v>
       </c>
@@ -1405,8 +1475,9 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <v>19</v>
       </c>
@@ -1415,8 +1486,9 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>20</v>
       </c>
@@ -1425,8 +1497,9 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>23</v>
       </c>
@@ -1435,8 +1508,9 @@
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <v>24</v>
       </c>
@@ -1445,8 +1519,9 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>25</v>
       </c>
@@ -1455,11 +1530,12 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <v>26</v>
       </c>
@@ -1468,11 +1544,12 @@
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <v>29</v>
       </c>
@@ -1481,8 +1558,9 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>32</v>
       </c>
@@ -1491,8 +1569,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>33</v>
       </c>
@@ -1501,8 +1580,9 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <v>34</v>
       </c>
@@ -1511,8 +1591,9 @@
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>36</v>
       </c>
@@ -1521,8 +1602,9 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <v>40</v>
       </c>
@@ -1531,12 +1613,13 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="F61" s="2" t="s">
+      <c r="E61" s="1"/>
+      <c r="G61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="1">
         <v>42</v>
       </c>
@@ -1545,8 +1628,9 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>43</v>
       </c>
@@ -1555,9 +1639,10 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E63" s="1"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <v>47</v>
       </c>
@@ -1566,9 +1651,10 @@
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E64" s="1"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <v>48</v>
       </c>
@@ -1577,8 +1663,9 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>50</v>
       </c>
@@ -1587,8 +1674,9 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <v>52</v>
       </c>
@@ -1597,8 +1685,9 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <v>53</v>
       </c>
@@ -1607,9 +1696,10 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E68" s="1"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1">
       <c r="A69" s="1">
         <v>57</v>
       </c>
@@ -1618,8 +1708,9 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1">
       <c r="A70" s="1">
         <v>60</v>
       </c>
@@ -1628,9 +1719,10 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E70" s="1"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1">
       <c r="A71" s="1">
         <v>62</v>
       </c>
@@ -1639,8 +1731,9 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1">
       <c r="A72" s="1">
         <v>63</v>
       </c>
@@ -1649,11 +1742,12 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1">
       <c r="A73" s="1">
         <v>64</v>
       </c>
@@ -1662,8 +1756,9 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1">
       <c r="A74" s="1">
         <v>66</v>
       </c>
@@ -1672,8 +1767,9 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1">
       <c r="A75" s="1">
         <v>67</v>
       </c>
@@ -1682,8 +1778,9 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1">
       <c r="A76" s="1">
         <v>68</v>
       </c>
@@ -1692,8 +1789,9 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1">
       <c r="A77" s="1">
         <v>69</v>
       </c>
@@ -1702,8 +1800,9 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1">
       <c r="A78" s="1">
         <v>70</v>
       </c>
@@ -1712,8 +1811,9 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1">
       <c r="A79" s="1">
         <v>71</v>
       </c>
@@ -1722,9 +1822,10 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E79" s="1"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1">
       <c r="A80" s="1">
         <v>73</v>
       </c>
@@ -1733,8 +1834,9 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" s="1">
         <v>74</v>
       </c>
@@ -1743,8 +1845,9 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1">
       <c r="A82" s="1">
         <v>75</v>
       </c>
@@ -1753,8 +1856,9 @@
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" s="1">
         <v>78</v>
       </c>
@@ -1763,8 +1867,9 @@
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" s="1">
         <v>79</v>
       </c>
@@ -1773,8 +1878,9 @@
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="1">
         <v>80</v>
       </c>
@@ -1783,11 +1889,12 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="1">
         <v>81</v>
       </c>
@@ -1796,11 +1903,12 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="F86" s="2" t="s">
+      <c r="E86" s="1"/>
+      <c r="G86" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -1809,8 +1917,9 @@
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1">
       <c r="A88" s="1">
         <v>85</v>
       </c>
@@ -1819,9 +1928,10 @@
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E88" s="1"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="1">
         <v>86</v>
       </c>
@@ -1830,8 +1940,9 @@
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" s="1">
         <v>87</v>
       </c>
@@ -1840,8 +1951,9 @@
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <v>88</v>
       </c>
@@ -1850,8 +1962,9 @@
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1">
       <c r="A92" s="1">
         <v>89</v>
       </c>
@@ -1860,8 +1973,9 @@
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1">
       <c r="A93" s="1">
         <v>90</v>
       </c>
@@ -1870,11 +1984,12 @@
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1883,14 +1998,15 @@
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1899,8 +2015,9 @@
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -1909,8 +2026,9 @@
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -1919,8 +2037,9 @@
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -1929,8 +2048,9 @@
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -1939,8 +2059,9 @@
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -1949,8 +2070,9 @@
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -1959,8 +2081,9 @@
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -1969,17 +2092,18 @@
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G102">
+  <autoFilter ref="A1:H102">
     <sortState ref="A2:G102">
       <sortCondition ref="C1:C102"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F61" r:id="rId1"/>
-    <hyperlink ref="F86" r:id="rId2"/>
-    <hyperlink ref="F94" r:id="rId3"/>
+    <hyperlink ref="G61" r:id="rId1"/>
+    <hyperlink ref="G86" r:id="rId2"/>
+    <hyperlink ref="G94" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25520" yWindow="-20" windowWidth="25600" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="25500" yWindow="500" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>Problem No.</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>use json ok?</t>
+  </si>
+  <si>
+    <t>why doesn’t CCS path work?</t>
   </si>
 </sst>
 </file>
@@ -798,7 +801,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -986,7 +989,9 @@
         <v>2</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="1">

--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25500" yWindow="500" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
   <si>
     <t>Problem No.</t>
   </si>
@@ -391,15 +391,6 @@
   </si>
   <si>
     <t>Questions</t>
-  </si>
-  <si>
-    <t>OK for tag=university?</t>
-  </si>
-  <si>
-    <t>use json ok?</t>
-  </si>
-  <si>
-    <t>why doesn’t CCS path work?</t>
   </si>
 </sst>
 </file>
@@ -798,10 +789,10 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -942,9 +933,7 @@
       <c r="D8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="1">
@@ -974,9 +963,7 @@
       <c r="D10" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1">
@@ -988,10 +975,10 @@
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="D11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="1">

--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="-20" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
   <si>
     <t>Problem No.</t>
   </si>
@@ -449,12 +449,12 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,10 +789,10 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -814,10 +814,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -840,10 +840,10 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1">
@@ -855,176 +855,158 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="1">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="1">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="1">
-        <v>37</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="1">
-        <v>55</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>59</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>61</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -1034,23 +1016,21 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -1060,75 +1040,72 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
+      <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1138,103 +1115,99 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
+      <c r="F26" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="1">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="1">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="1">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="1">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="1">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -1244,10 +1217,10 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="1">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
@@ -1257,141 +1230,136 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="1">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="1">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="1">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="4" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="1">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="1">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="1">
-        <v>93</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="1">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="1">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="H41" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="G41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="1">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="1">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1399,430 +1367,452 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="1">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="1">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="1">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="1">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="1">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="1">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="1">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="1">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="1">
-        <v>29</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="1">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="1">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="1">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="1">
-        <v>36</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="G61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="1">
-        <v>42</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="1">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="1">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F64" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="1">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="1">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="1">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="1">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="1">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="1">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="1">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="1">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="1">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="1">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="1">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1830,43 +1820,54 @@
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
+      <c r="F81" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1">
       <c r="A82" s="1">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
+      <c r="G82" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
+      <c r="F83" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1874,38 +1875,36 @@
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="G86" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="A87" s="1">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -1913,22 +1912,21 @@
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1">
       <c r="A88" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="G88" s="7"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -1936,10 +1934,10 @@
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -1947,56 +1945,62 @@
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1">
       <c r="A91" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
+      <c r="F91" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1">
       <c r="A92" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1">
       <c r="A93" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" s="1">
@@ -2088,14 +2092,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H102">
-    <sortState ref="A2:G102">
-      <sortCondition ref="C1:C102"/>
+    <sortState ref="A2:H102">
+      <sortCondition ref="A1:A102"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G61" r:id="rId1"/>
-    <hyperlink ref="G86" r:id="rId2"/>
-    <hyperlink ref="G94" r:id="rId3"/>
+    <hyperlink ref="G41" r:id="rId1"/>
+    <hyperlink ref="G82" r:id="rId2"/>
+    <hyperlink ref="G93" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="126">
   <si>
     <t>Problem No.</t>
   </si>
@@ -391,6 +391,15 @@
   </si>
   <si>
     <t>Questions</t>
+  </si>
+  <si>
+    <t>not seeming to work. Maybe use API?</t>
+  </si>
+  <si>
+    <t>which website?</t>
+  </si>
+  <si>
+    <t>California or SF?</t>
   </si>
 </sst>
 </file>
@@ -446,9 +455,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -789,10 +799,10 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -814,10 +824,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -840,10 +850,10 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1">
@@ -855,35 +865,35 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E5" s="1"/>
@@ -898,166 +908,189 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
+      <c r="H16" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2" t="s">
-        <v>56</v>
+      <c r="E18" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1065,10 +1098,10 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1076,36 +1109,34 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1115,21 +1146,24 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
+      <c r="F24" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1137,38 +1171,33 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="2" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -1178,25 +1207,21 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1204,47 +1229,51 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
+      <c r="F31" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
+      <c r="F32" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1252,21 +1281,23 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
@@ -1276,10 +1307,10 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1287,38 +1318,32 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -1328,25 +1353,22 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="G41" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
@@ -1356,33 +1378,38 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
@@ -1392,59 +1419,60 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
@@ -1454,111 +1482,109 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
@@ -1568,45 +1594,40 @@
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="1">
@@ -1629,7 +1650,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1722,7 +1743,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="1">
@@ -1828,7 +1849,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1842,7 +1863,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="G82" s="7" t="s">
+      <c r="G82" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1858,7 +1879,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1885,7 +1906,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="1">
@@ -1897,7 +1918,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="G86" s="3"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="A87" s="1">
@@ -1930,7 +1951,9 @@
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" s="1">
@@ -1953,7 +1976,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1983,7 +2006,7 @@
       <c r="F93" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1999,8 +2022,8 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" s="1">
@@ -2093,11 +2116,11 @@
   </sheetData>
   <autoFilter ref="A1:H102">
     <sortState ref="A2:H102">
-      <sortCondition ref="A1:A102"/>
+      <sortCondition ref="D1:D102"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G41" r:id="rId1"/>
+    <hyperlink ref="G44" r:id="rId1"/>
     <hyperlink ref="G82" r:id="rId2"/>
     <hyperlink ref="G93" r:id="rId3"/>
   </hyperlinks>

--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
   <si>
     <t>Problem No.</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>California or SF?</t>
+  </si>
+  <si>
+    <t>seems only to have pdf</t>
   </si>
 </sst>
 </file>
@@ -798,11 +801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1051,11 +1054,13 @@
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="H16" s="3" t="s">
         <v>47</v>
@@ -1089,46 +1094,54 @@
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
@@ -1141,7 +1154,9 @@
       <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">

--- a/Scavenger-Scrape.xlsx
+++ b/Scavenger-Scrape.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="135">
   <si>
     <t>Problem No.</t>
   </si>
@@ -403,6 +403,30 @@
   </si>
   <si>
     <t>seems only to have pdf</t>
+  </si>
+  <si>
+    <t>downloading…</t>
+  </si>
+  <si>
+    <t>http://prd-enforce-xfr-02.dol.gov/data_catalog/OSHA/osha_inspection_20150429.csv.zip</t>
+  </si>
+  <si>
+    <t>http://www.senate.gov/general/committee_assignments/assignments.htm</t>
+  </si>
+  <si>
+    <t>not don’t the best way</t>
+  </si>
+  <si>
+    <t>seems hard</t>
+  </si>
+  <si>
+    <t>https://www.law.cornell.edu/uscode/text</t>
+  </si>
+  <si>
+    <t>hmmm</t>
+  </si>
+  <si>
+    <t>started</t>
   </si>
 </sst>
 </file>
@@ -461,13 +485,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,10 +826,10 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -827,10 +851,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -853,10 +877,10 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1">
@@ -868,35 +892,35 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E5" s="1"/>
@@ -911,384 +935,405 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="G8" s="3" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="1">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>37</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="1">
-        <v>55</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="1">
-        <v>59</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>61</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="5" t="s">
-        <v>124</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="H16" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="1">
-        <v>13</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>15</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="1">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="F26" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E28" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="1">
-        <v>23</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="3" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1296,69 +1341,80 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="1">
-        <v>31</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="1">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="E37" s="1"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="1">
-        <v>33</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="1">
-        <v>34</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="1">
-        <v>35</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -1368,22 +1424,25 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="1">
-        <v>36</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="H41" s="4"/>
+      <c r="G41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
@@ -1393,101 +1452,102 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="1">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="G44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="6"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="1">
-        <v>41</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E45" s="1"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="4"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
@@ -1497,152 +1557,161 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="4"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="1">
-        <v>52</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="1">
-        <v>57</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="G61" s="4"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E62" s="1"/>
-      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="1">
@@ -1665,7 +1734,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1701,7 +1770,9 @@
         <v>86</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1">
@@ -1741,11 +1812,13 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1">
@@ -1758,7 +1831,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="4"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="1">
@@ -1770,7 +1843,9 @@
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="1"/>
+      <c r="D73" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1">
@@ -1788,11 +1863,13 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1">
@@ -1810,13 +1887,15 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1">
@@ -1862,9 +1941,11 @@
         <v>97</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1878,7 +1959,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="7" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1894,7 +1975,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1906,7 +1987,9 @@
         <v>101</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1">
@@ -1921,7 +2004,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="4"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="1">
@@ -1933,7 +2016,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="G86" s="4"/>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="A87" s="1">
@@ -1966,7 +2049,7 @@
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1991,7 +2074,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1999,7 +2082,7 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="1">
@@ -2021,7 +2104,7 @@
       <c r="F93" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G93" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2029,7 +2112,7 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C94" s="1">
@@ -2037,8 +2120,8 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" s="1">
@@ -2048,7 +2131,9 @@
         <v>112</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1">
@@ -2059,7 +2144,9 @@
         <v>113</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1">
@@ -2070,7 +2157,9 @@
         <v>114</v>
       </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1">
@@ -2103,7 +2192,9 @@
         <v>117</v>
       </c>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1">
@@ -2125,17 +2216,19 @@
         <v>119</v>
       </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="D102" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E102" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H102">
     <sortState ref="A2:H102">
-      <sortCondition ref="D1:D102"/>
+      <sortCondition ref="A1:A102"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G44" r:id="rId1"/>
+    <hyperlink ref="G41" r:id="rId1"/>
     <hyperlink ref="G82" r:id="rId2"/>
     <hyperlink ref="G93" r:id="rId3"/>
   </hyperlinks>
